--- a/500all/speech_level/speeches_CHRG-114hhrg97636.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97636.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will come to order, and let me express my apologies for the lateness in starting. We did have a series of votes. Who could ever anticipate or predict?    So, again, I want to say how unfortunate it is for that almost hour-long delay. But thank you for your patience.    I would like to welcome all of you to our fourth oversight hearing this year on implementation of the Sean and David Goldman International Child Abduction and Prevention and Return Act.    The Goldman Act empowers the executive branch with powerful new tools and a myriad of ways to successfully resolve parental child abduction cases.    Like any law, however, it is only good as its implementation. Historically, some 750 to 1,000 American children are unlawfully removed from their homes each year by one of their parents and taken across international borders.    International parental child abduction rips children from their homes and takes them away to a foreign land, alienating them from the love and care of the parent and family left behind.    Child abduction is child abuse. Its negative impact on the child and left-behind families can last for years, even a lifetime.    Two of our witnesses today, like many in this hearing room and around the country know first hand the trauma, the tears, the excruciating pain and the longing and heartbreak of a parental child abduction.    David Goldman's son, Sean, was abducted to Brazil and unlawfully retained for approximately 5\\1/2\\ years. Mr. Goldman tenaciously pursued every legal means of return including expert legal counsel in his quest to bring Sean home. Today, father and son are thriving and we will hear from them in Panel Two.    Captain Paul Toland continues his heroic 12-year quest to bring his 13-year-old daughter, Erika, home from Japan. Captain Toland refuses to quit or to be deterred, despite years of frustration and setbacks. Such is this father's incredible love for his precious daughter.    Our first hope, of course, is to prevent or at least mitigate the number of child abductions and the State Department is to be commended for implementing a provision of the Goldman Act and for taking other efforts as well including the one that adds children that a judge has determined to be at risk of abduction to a no-fly list.    In 2014, we saw a decrease in the number of new abductions--150, as a matter of fact, fewer cases than the previous year--and I want to do a shout out to Rush Marburg on the prevention side who has done a magnificent job in this endeavor.    But I am, frankly, concerned that the State Department has chosen not to impose any sanctions on any of those nations found to have engaged in a ``pattern of noncompliance.''    The Goldman Act, however, requires the State Department action under individual cases that have been pending for more than a year if the foreign government has not been taking adequate steps to resolve the case.    The Goldman Act also requires action when collectively a country has a high number of cases--30 percent or more--that have been unresolved for over a year or if the government is failing in their duties under the Hague Convention or other bilateral agreements or if their law enforcement fails to enforce, return or access orders.    The Goldman Act not only shines a light on a country's record through annual designation of countries showing a pattern of noncompliance, it holds countries accountable and hopefully incentivizes systemic reform.    Actions, as we know, from the law escalate in severity and range from official protests through diplomatic channels to public condemnation to extradition to suspension of development, security or other foreign assistance.    The Goldman Act was designed to raise the stakes on the foreign countries in action or obstruction and move that country to end the nightmare of child abduction.    In July, we received the State Department's first annual report on abduction and access resolution rates around the world. The annual report had some major gaps and misleading information, some of which were corrected by the supplemental data posted by the State Department in August.    Tragically, in contravention of both the spirit and letter of the Goldman Act, the State Department failed to list Japan with more than 50 abduction cases among the 22 countries showing a pattern of noncompliance and therefore eligible for Goldman Act sanctions.    This glaring omission, which can still be corrected today, sent the unfortunate signal that pre-Hague Japan cases were not a top priority.    Cases like that of Sgt. Michael Elias, who has testified here--he is a New Jerseyan who has been denied any contact with his two children, Jade and Michael, after they were abducted to Japan in 2008.    In September, the State Department sent to Congress its first 90-day report on actions it took to bring the 22 countries most--to the resolution table.    Those actions including the marches, judicial rulings--meetings, I should say--and education efforts and meetings, all of which are necessary and of real value. Noticeably absent was the imposition of any number of meaningful sanctions, again, prescribed by the Goldman Act.    I respectfully submit that this was a missed opportunity to convey to a pattern of noncompliant nations that the United States is absolutely serious about resolving parental abduction.    The imposition of sanctions says we mean business and I would note parenthetically that sanctions, and I have done this in other laws that I have written including the Trafficking Victims Protection Act but also our Civil Rights Act, Title 9, which has made all the difference in the world in women's sports, always carried a penalty phase and that certainly got the attention of universities and colleges throughout the country that the Federal Government was not kidding and wanted changes in how these universities did business.    Notwithstanding Section 103 of the Goldman Act, the report makes no mention of MOUs or bilateral agreements to resolve cases including and especially cases that existed prior to Japan's ratification of the Hague.    I and many others have raised this concern for several years. I actually did a trip to Japan with Michael Elias' mother, the children's grandmother, and said if we don't get that right they will be twice left behind because they were less likely to find themselves a resolution to their cases because, of course, the Hague Convention is from the date of ratification onward. It does not have a look back provision.    The report details the State Department's effort to persuade India to ratify the Hague Convention, a step that if not combined with an MOU to resolve current abduction cases which number about 75 today risks duplicating the extraordinary misery endured by left-behind parents after Japan ratified the Hague.    If India ratified the Hague it will, like Japan, grandfather preexisting cases out of the convention resolution process.    I would note the Bindu Phillips, who has been here, and she too has testified--mother of Albert and Alfred--has struggled with her ex-husband in Indian courts for the return of her sons for nearly 9 years--9 years--and every time she thinks she may be on the verge of a win in court, obviously, there is always, like in David Goldman's case another appeal to bleed her dry financially and to make it difficult to ever get her sons back. Ravi Parmar has been fighting for his son's return for 3 years.    Section 201 of the Goldman Act also requires the State Department to conduct a review of individual cases pending 12 months or more to discern whether the foreign government has taken adequate steps to resolve the case or whether actions are warranted.    This individual case trigger for actions, as opposed to the pattern of noncompliance country trigger, despite a half dozen congressional letters from various Members of Congress asking for Section 201 reviews of egregious cases the State, to my knowledge, has not done a single review and perhaps, Ambassador Bond, you can enlighten us on that.    I am encouraged by a press statement issued today by Secretary of State John Kerry in which he says clearly that he is looking to use all of the tools that have been prescribed by the Goldman Act as the beginnings of the next report take place and he said, you know, in his press release--and I do have it--he says in his press release, and I think it is a very important point that there can be no safe haven for abductors.    The State Department, Secretary Kerry says, will continue to use all the tools available to us to help those involved in international parental child abduction cases to resolve their disputes and move forward with their lives. So that is a very encouraging note.    Now I would like to introduce Secretary Bond, first, with a very brief introduction and without objection your full resume will be made a part of the record.    Ambassador Michele Bond serves as Assistant Secretary for Consular Affairs at the State Department. As Assistant Secretary, Ambassador Bond leads a team of 13,000 consular professionals in almost 300 locations across the U.S. and around the world who protect the lives and interests of U.S. citizens abroad, facilitate legitimate international travel and helps protect our nation's borders.    A career member of the senior Foreign Service, Ambassador Bond has more than 38 years of diplomatic experience in Europe, Africa and Latin America including having served as U.S. Ambassador to Lesotho.    Ambassador Bond, the floor is yours.    Ambassador Bond. Thank you.    Chairman Smith, thank you for this opportunity to discuss international parental child abduction. This is one of the highest priorities to the Bureau of Consular Affairs and the Department of State.    As Secretary Kerry noted in his statement on child abduction yesterday and as you have pointed out, the department will continue to use all the tools available to us to help those involved and to resolve their disputes and move forward with their lives.    Mr. Chairman, thank you for your leadership on this issue. You have heard the testimony of my colleagues, Ambassador Jacobs, Deputy Assistant Secretary Christensen and Director Hand in previous hearings.    You know that I lead a talented team of experienced professionals who work tirelessly to prevent abductions and bring children back home.    My testimony today will summarize my written statement which I request be entered into the congressional record.    The Sean and David Goldman International Child Abduction Prevention and Return Act of 2014 has given us additional leverage to resolve these cases. We have already put these additional tools to good use.    We are proud of our contribution to the 247 returns in 2015 and about 140 prevented abductions in 2015, and we recognize and accept the challenge of the 1,100 cases that remain open, some for many years.    Mr. Chairman, many actions take place every day to prevent or resolve these heart-wrenching cases. Since implementation of the law, more than 140 children have been protected from removal from the United States.    The law also provides the mechanism to streamline interagency efforts and we are fortunate to receive crucial assistance from our interagency partners.    We share your goals of preventing abduction, ensuring the expeditious return of children to their homes and strengthening and expanding the Hague Abduction Convention.    Let me briefly explain the role of the Office of Children's Issues within the greater context of how the Bureau of Consular Affairs advances U.S. foreign policy.    The Office of Children's Issues provides policy guidance and coordination within the Department of State and the Washington interagency community to prevent child abduction. It safeguards the welfare of abducted children, returns abducted children to their places of habitual residence and helps parents resolve these complex cases.    The Office of Children's Issues executes U.S. obligations under the convention as the U.S. central authority.    It leads U.S. Government efforts both within the department and with other U.S. Government agencies to assist children and families involved in abduction cases in all countries and reviews applications to partner with countries that have acceded to the Hague abduction convention.    My bureau leads the effort to engage governments on convention implementation, acceding to the convention and providing assistance to families involved in cases in nonconvention countries.    Our number-one priority is the safety and protection of U.S. citizens overseas. This provides a little solace to those parents who are still waiting to see their children returned home. Only the safe return of their children matters.    As a parent and as an assistant secretary of state for consular affairs, I pledge that my team and I will continue to work to resolve all abduction cases.    That includes working with convention countries such as Japan to resolve abductions that occurred before our partnership under the convention took effect.    We are actively engaged with Japan in these cases. Disappointingly few have been resolved with the return of an abducted child to the United States or through meaningful parental access.    My colleagues in the bureau, throughout the department and at our Embassies and consulates abroad, press our foreign government counterparts on the issue of abduction and raise your constituents' cases at every opportunity.    For example, we have requested the Government of India's assistance in resolving reported abduction cases. Special advisor for children's issues, Ambassador Susan Jacobs, Principal Deputy Assistant Secretary for South and Central Asian Affairs Ambassador William Todd and I all personally urged India to resolve reported cases in recent meetings in New Delhi and Washington.    Additionally, officials at the U.S. Embassy in New Delhi are in regular contact with Indian foreign ministry officials on these issues.    Mr. Chairman, let me again emphasize my personal commitment and my bureau's dedication to prevent parental abductions.    The department at State and our Interagency partners are committed to the implementation of the law and to safeguarding and returning abducted children to their places of habitual residence.    We are committed to ensuring parents have effective tools to resolve these cases in both convention and nonconvention countries.    As always, I appreciate your interest, your feedback and your suggestions. I look forward to your questions.</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman.    Ambassador Bond, thank you for being here. Obviously, we--this is not the first hearing that we have had on this matter. Your colleague there behind you, she has been here before, and I believe that you have a real commitment to return these children to their parents.    The frustration becomes is--and the reason for the Goldman Act originally was the type of soft diplomacy that you have described over the--really, in much of your testimony most of it has been soft diplomacy.    And what you are referring to was really the whole reason why the Goldman Act was passed by Congress was to give you additional tools beyond that soft diplomacy and the frustration that has been evident in this hearing as well as other hearings is the fact that some of the tools that have been afforded the State Department are not being used. And so there is a law that has been passed.    Now, I want to make sure I am clear with you and with some of your other colleagues. I know your commitment is, as you put it, a number-one priority.    The frustration on parents is each day, each birthday, each time that goes by they don't see that commitment and it is--where it is a priority for you it is the life for many of these parents and there is the disconnect.    So I guess my question, and I am going to be very direct, has the State Department delayed or cancelled one or more bilateral working relationships or official or State visits with any country based on a lack of cooperation?    Have you done that? Can you point to any specific example where that has been done based on their inability to help us out? Has that ever been done?    Ambassador Bond. Mr. Meadows, I have to admit that after 38 years at the State Department I don't share your sense that soft diplomacy doesn't--just doesn't get the job done.</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>412604</t>
   </si>
   <si>
-    <t>Curt Clawson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming, Ambassador, and I think your job is a wonderful way to spend a life helping people and families like this. So congratulations and thank you for that.    Since I have been here in Washington, DC, we have talked about trade a lot. We just did the TPA agreement. We are now on the verge of the TPP agreement and so let me give you just a little bit of context, Ambassador, why I bring that up.    The U.S. is, roughly, a third of the GDP in the world, a little less than that. We are everyone's engine for economic growth and prosperity. No one does anything to lift up the poor in their country without trading with us, basically, for all intents and purposes.    Our trade deficit every month is $40 billion. That is the deficit every month--$40 billion, roughly. If the price of oil goes up, that goes up a little bit.    And so we are the economic engine for everyone, which creates leverage like I don't know--you know, every negotiated relationship in the world is based on leverage, as far as I can tell, and if that $40 billion a month doesn't create leverage with people I don't know what does.    We see Japanese-made cars. We see Korean-made cars. We all go to Wal-Mart. That's 90 percent Chinese-made goods, roughly.    We know what the Indians sell here, the Brazilians. I mean, I go down--when I went down the list today as I was reviewing the data for this committee, I looked at all these people that we have enormous economic leverage. They cannot live without us.    Now, if the administration is not serious enough to take their bacon away then what are we all sitting around here talking about?    We could solve corporate espionage tomorrow. We could solve kidnapped children tomorrow, in a month--one Executive order. Give our kids back or you don't get to sell your cars over here. Give our kids back or you don't get to sell your software over here. And if we don't do that how can we say we are serious? Because then we just send the money--and by the way, it costs--all those imported vehicles just cost good-paying jobs for hard-working Americans.    They just go away anyway. So we let our jobs go away at $40 billion a month and to add insult to injury they don't have to bring our kids back.    Now, I am not getting this. I am new to it. I hear what you all are saying about, you know, cancelled trips and cancelled that.    But as long as they are sending billions of dollars in here, making a living on our economy, and we are never doing--we are never using that leverage I don't see this changing. I really don't.    And so, you know, anything I can do to help but as a former business executive, you know, we had plants all over the world. These are nice people in these countries.    But until we hit them in the pocketbook nothing is going to happen, in my view. And so if you will take that back. Now, if my world is too simplistic and you are seeing something different than I am seeing, let me know.    But the only thing I think these folks will understand is if we take a shot at where it hurts and that is in the trade agreements and it can't go forever.    I mean, we could do it tomorrow, in my view. This is all very, very solvable as soon as we take a shot at their imports that come into our country.    Am I--you know, sorry for the passion here but am I--am I too simplistic in my--in my view here, Ambassador?    Ambassador Bond. Mr. Clawson, when I was working on the same issue 10 years ago, the countries that I was most focused on were Switzerland and Germany and Japan--been out there. Switzerland and Germany aren't on the list anymore because we have a very good working relationship.    We are good Hague partners. If children are taken, they come home. Very often children don't get taken because the advice that the parent gets who is kind of looking into--maybe checking with a lawyer, here's what I am thinking of doing--they are told don't even bother, your children will be brought right back.    Now, when we were originally talking with Switzerland and Germany 10 years ago there were judges in those countries that were saying why would I return a kid to the United States--it is better to grow up here in Germany and this child has a German passport and a German mother.    So I am not interested in the Hague Conventions.    That isn't true anymore. So I can't agree with the idea that the only thing that anybody listens to is a threat of financial harm.    I completely agree that the tools that are written into the new law are valuable ones and that they are ones that have to be under consideration for use, and they are.    But I do not agree that the best way to approach an issue is to say well, all right, you know, you have had 6 months and we told you these sanctions were out there so now we are going to come out with guns blazing.</t>
   </si>
   <si>
@@ -190,9 +181,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Let me thank the chairman for his kindness and the ranking member of this committee in this important hearing.    And I thank Secretary Bond for your presence here today. I dashed from the floor so thank you for your patience.    But I want to just hold up a face of mothers that have encountered challenges and difficulties even as this law has been passed.    And I would like to be--I think all of us would like to be a help to the administration, to administrations plural and to these families.    So I, first, would like to get from you a sense of the importance of the law being enforced through judicial and law enforcement education.    It seems that there is a difficulty. One case comes to mind where the court said I don't have jurisdiction--I am going to give it to Monaco when the children are U.S.-born, the mother is U.S.-born and a court is advocating their responsibility.    What do you think we can do with the education about the enforcement of this law?    Ambassador Bond. Well, one very valuable important tool that we have in terms of our education efforts is our network of Hague judges, Federal and state judges who are experts on the Hague and are prepared and very actively go out and talk to their counterparts in other countries in order to address very directly the questions that they might have about how this process works and to reassure them about how the process works in the United States.    So that is one of the education measures that we have. We also have brought scores of foreign judges and prosecutors to the United States to be--to have the opportunity to meet their counterparts and to understand how the process works here and to exchange different cases they worked on and just talk, you know, robe to robe, if you will, about how the process works for them, how they understand it and how the American judges handle the same cases.    So I think that is very much at the heart of the work that we are doing working also with the Hague permanent bureau, which has experts stationed in different regions of the world who also work to support different governments to make sure that they understand what they are supposed to be doing and that they get it right.    In Brazil next week there is going to be a judicial training program that is being organized with our support by the Hague permanent bureau.</t>
   </si>
   <si>
@@ -245,9 +233,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. I would like to now invite panel two, being first with Mr. David Goldman, a father of a child abducted to Brazil. Mr. Goldman is father of Sean Goldman, who is here in the audience. He was born in Red Bank--Sean was, abducted to Brazil in 2004.    Mr. Goldman spent the next 5\\1/2\\ arduous years, enormous amounts of time and financial resources and had a great number of people supporting him in the New Jersey community and really around the country to secure the return of his son.    In December 2009, Christmas Eve to be exact, he actually got his son back and flew back to the United States and what a great reunion that was, not just for David but for his entire family.    We thank him for the work that he has done not just for himself but the Bring Sean Home Foundation and the other work he has done. He has been a shining example of what can be when the levers of government, the private sector, the media, all work in concert to bring about justice and a--in this case, a much needed family reunification.    We will then hear from U.S. Navy Captain Paul Toland, who has been fighting for access to and return of his daughter Erika since 2003.    Captain Toland--she was abducted, I should say, as an infant from a Navy family housing in Japan. Captain Toland has been the sole surviving parent since 2007 when Erika's mother died. But still has been prevented from unification with his daughter who is living with her grandmother.    Captain Toland recently launched a new legal effort in Japan's courts calling on the courts to recognize the fundamental human rights of a biological parent to have access to his or her child.    He is the co-founder and national director of Back Home, a nonprofit organization dedicated to the immediate return of internationally abducted children who have been wrongfully detained, especially in Japan.    I would like begin with Mr. Goldman and then go to Captain Toland.</t>
-  </si>
-  <si>
-    <t>Goldman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Goldman. Thank you, Mr. Chairman and Mr. Meadows and Ms. Jackson. It is wonderful that you are here to support this. I know Mr. Meadows has been here on a few of these hearings and we appreciate that.    I would like to just start before I go into my actually testimony, and all these hearings that I attend and some participate in I do keep hearing about the quiet diplomacy, and I always wonder, like, the questions that you ask, instead of deflecting them what is the real reason that they won't use the tools in the toolbox?    What is it? Just come clean. We don't believe in it. It is against what we stand for. I always thought it would just be against--they are more concerned about their bilateral relations than the 100 children in this country, the 200 children in this country--they are more worried about trade, they are more worried about arms, they are more worried about drug smuggling, border control in certain countries.    But why can't they just basically come clean and say what is the reason they won't use the tools in the tool box that they need, that they wanted? I just listened and we talk about Brazil.    They have acceded to the Hague Convention in 2004 and they are always on noncompliance. They just said nine times consecutively noncompliant. When is it time to use the tools? Does it take 9 years? Some child who is kidnapped at 9 is now an 18-year-old. They're a grownup. They are not a child anymore. That goes in complete contra Hague Convention, what it stands for.    Nine times and they are noncompliant and that does show that quiet diplomacy in that case doesn't work. And as you said, a 27-percent return rate from Germany, to me doesn't seem very successful.    But I diverged because those are just points that I just hear every time. So I was--I will give you a brief history of my case. For 5\\1/2\\ years I was a left-behind parent. I did live in a world of despondency and desperation with a searing pain through my entire being.    Everywhere I turned I saw an image of my abducted child. Sleep was hard to come by. It was never restful. If I smiled I did feel guilt.    When I saw children, whether it was in the store, a park, on television or on my charter boat, where clients often take their families for day on the water, it was more than painful.    For the longest time it was too painful to be around my own nieces and nephews. I was wondering--I wanted to be and where was my son. Where was my child?    He had been abducted. He had been illegally held. He was being psychologically, emotionally and mentally abused. I needed to help him but I was helpless. I needed to save him. He needed me, his father.    It was our legal, our moral, our God-given right to be together as parent and child. I did everything humanly possible leaving no stone unturned when for many years the result remained the same. My son, Sean, was not home.    There were court orders in place--many court orders from the U.S. demanding the immediate return of my child. The courts, as you pointed out, Mr. Chairman, acknowledged that my son had been held in violation of U.S. and international law.    However, he remained in the possession of his abductors. Why were so many laws being ignored? Why were the abductors and in my case, the Government of Brazil, allowed to flagrantly violate international law without consequence?    Why were my child and over 50 other American children still in Brazil, another plus in Mexico and thousands of other American children also held illegally in other countries in clear violation of the Hague Convention on the civil aspects of international child abduction?    It would take 4\\1/2\\ years, numerous court hearings, extraordinary work from my attorneys in Brazil and the U.S. and a tremendous amount of political pressure applied publically and internationally in House and Senate and State resolutions for me to finally be able to visit my abducted son for a few short periods of time.    It took Congressman Smith traveling to Brazil with me. It took Senator Lautenberg holding up a trade bill that would have given Brazil nearly $3 billion of trade preferences for my son to come home.    So as I prepared today's hearing, I began to review my own testimony from previous hearings as well as testimony of others who had given powerful and moving accounts of their own experiences with this issue.    In past, what was obvious was that our Government lacked the tools they so desperately needed to bring abducted American children home.    That is not the issue any longer. It has been over a year now since President Obama signed the Goldman Act into law, and thank you, Mr. Chairman, for authoring that legislation. It is much needed and I hope we can use it.    I hope our Government uses it. I beg, I plead on behalf of all these other left-behind parents and families and grandmas and cousins and nieces and nephews and the community that they were ripped away from that we use the tools to get these children home. It provides our Government with a number of options to persuade countries to return abducted American children.    One of our first duties of government is to protect its citizens and the Goldman Act does just that. We no longer need one senator. Important. We no longer need one senator to hold the trade bill in which 131 countries would see tariffs on their imports to the U.S. rise sharply and billions of dollars of their trade disrupted.    The Goldman Act is designed to work country to country--on a country to country basis and may impose punitive measures against individual nations harboring abducted American children.    And I go to the press release--there can be no safe havens for abductors. That was released yesterday by Secretary Kerry. Point in case--let's take action.    We need not--our Government needs not be so concerned about upsetting a country that harbors child abductions of American citizen children. We must demand their return. We are not asking for any favors.    We are expecting the rule of law to be followed and if it isn't then let them see there are tangible consequences. And when we do, and hopefully we will use some of these powerful tools, stronger tools, they are not permanent. They send the children home and whatever penalty, whatever punitive measures they face may be lifted.    It doesn't mean it's forever. But let's make a statement and if they get angry at us--how can we be concerned a country being angry at us for demanding our American children home? These are our citizens. It is our duty to protect them. We can't be concerned if they are going to get angry at us for demanding the return as they would their own.    It's intended to work side by side with the Hague Convention on the civil aspects of international child abduction, ensuring countries honor their treaty obligations, and this way the Goldman Act almost acts like a bodyguard to the treaty, protecting it and ensuring that it is followed as it was intended.    It took several years and several markups before becoming law and we now have the ability to help bring home this country's abducted children with both Hague signatory countries as well as non-Hague countries.    I would just quickly like to address the criminal approach. We talked about Department of Justice. And in my case as well as most cases, the first instincts are to pursue criminal remedies--go to the police, hunt down the abductors and hope for a return of the child through law enforcement. I understand and sympathize with that approach and that was in fact my first instinct.    But I do think that approach adds another layer of complexities to the process. What the Hague treaty does in simple terms is put a signatory country--it puts all signatory countries in agreement on how the issue of international child abduction should be resolved without complicating it on the basis of cultural and domestic laws.    Essentially, there are two extremely important issues that arise from criminal proceedings and demand from extraditions of child abductors.    Domestic courts will often refuse the return of an abducted child, knowing that the taking parent will face criminal prosecution by coming back to the country where the child was abducted from and many countries it is in their constitution--they just simply will not extradite one of their own citizens.    And even if they do extradite one of their own citizens, so you got the abductor back but the child is still over there.    It just adds a whole other layer of complexities and that is why the basis of the Hague Convention is on the civil aspects and that is why the tools of the Goldman Act are civil actions.    And as we also talked about, with regard to the Hague Convention itself, there are two areas which are most often abused by foreign judges when deciding these cases.    One is in Article 11 about the judicial administrative authorities shall expeditiously in proceedings so act expeditiously to return the children and if they don't reach that decision within 6 weeks of the date of commencement of the proceedings the applicant or the central authority of the requested state on its own initiative or if asked by the central authority of the requested state shall have the right to request a statement for the reasons of the delay.    So, clearly, the spirit of the convention is to have these cases handled swiftly so that there is little disruption as possible in the life of a child.    We all know that is not what happens. Most of the time when Americans are abducted because of the endless legal delays resulting from motions filed by the abducting parents the convention's intent is thwarted and the spirit of the convention is lost.    And, as an example, they use Article 13(b) about you don't have to return a child if the court where the child was abducted says there is going to be grave risk or harm to return the child.    So what they do is they interpret these legal delays and proceedings as the grounds for denying the return of a child based on the assumption that the passage of time somehow eliminates the urgency of returning that child to their home country of habitual residence. Because of their own slow judicial process they say it is now going to disrupt the abduct child to return them, thus rewarding the kidnapper.    As Congressman Smith mentioned, that case in Brazil, which is going on right now, they actually denied Chris Brann's--Dr. Brann, who I take a side note, is a internist. He works at Baylor University in Texas.    He dedicated his life to helping others yet he can't help his own child. He can't nurture and help and be with his own child.    Someone whose calling in life is to help heal, he can't even participate in his own child's life and the pain he is experiencing as well as all the other parents is just tremendous and devastating there really are no true words to imagine the level of despair that these parents suffer every day.    But they--in this case the judge cited, in Chris' case, the denial of my son because of the passage of time and the well settled issue. They denied the return of his son, citing my case. I was floored when I realized that, when I read that.    This judge that decided his case must have never read the news, seen the television or looked at a legal precedence because my son is home and he's been home for nearly 6 years. So for her to cite that case is just showing that they are looking at any reason to not return children.    Another example in Brazil, and this is about the enforcement issue, so now we have one judge just denying the return in a blatant disregard for the law. Another case is Nadia Davenport.    It's been more than 7 years since Devon Davenport's baby daughter was abducted from North Carolina to Brazil and he has fought admirably to bring his daughter home and he has even testified before this same committee last year making an impassioned plea for help.    The Brazilian court has ordered his daughter, Nadia, home and all legitimate appeals have been exhausted. Yet, nearly 2 years have passed since that decision without enforcement of the return and Nadia remains in Brazil illegally and Devon Davenport is not closer to being with his child.    So we have a country noncompliant for nine times. When they do get a judicial order it doesn't get carried out if they do get a judicial order.    There is no country that's screams, that is a member of the Hague for this long, to try your quiet diplomacy, to use the tools and these parents, like so many others, suffer so much. It is beyond words to describe and I know because I was one of them. I did feel like a dead man walking--lifeless, struggling day to day to get through the most meaningless tasks.    I am now so fortunate to be on the other side, having been reunited with my son, and to my knowledge, to answer a couple of your questions, Sean--my son, Sean Goldman--is the only American child ever to be returned from Brazil to America under a court order under the provisions of the Hague Convention.    So you asked the question. That's the answer. My son is the only child ever to be returned from Brazil to America under provisions of a court order under the Hague Convention and they have been acceded to the treaty since 2004.    We are lucky. We can't recover the years we have lost but we can enjoy our time now. We can live as parent and child. I can watch him grow and evolve and become a young adult.    We can interact with each other, participating, educating, encouraging and disciplining as a parent should be able to do with their own child. And so many other left-behind parents were given hope and, painfully, celebrated my son's return without their own children at their side.    And please don't allow their hope to be a cruel and anguishing false hope that their children may one day come home. Accompanying me to this hearing today are my son and stepson, Sean, and his stepbrother, Jesse. They are brothers and good buddies, and Sean can grow up as a normal boy with family and friends like it was intended.    I was able to assume my role as his father and he as my son. It is our legal and God-given right to be father and son. And next to me is Captain Paul Toland. The empty chair behind him awaits for his abducted daughter, Erika.    It is this government's duty to protect its citizens, to protect the rights of Erika and allow her to come home to America and grow up on the care of her father, her only living parent.    The tools are in place. Please use them. Help Paul reunite with Erika. Please help these suffering mothers and fathers reunite with their abducted American children. Our country is about keeping families together and they desperately need your help.    Paul needs your help. We have the tools. Let's use them.</t>
@@ -661,11 +646,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -687,11 +670,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -713,11 +694,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -739,11 +718,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -765,11 +742,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -791,11 +766,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -817,11 +790,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -843,11 +814,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -869,11 +838,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -895,11 +862,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -921,11 +886,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -947,11 +910,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -971,13 +932,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -997,13 +956,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>26</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1023,13 +980,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1049,13 +1004,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1075,13 +1028,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1101,13 +1052,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1127,13 +1076,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1153,13 +1100,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1179,13 +1124,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1205,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1233,11 +1174,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1257,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1283,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
         <v>38</v>
-      </c>
-      <c r="G26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1311,11 +1246,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1337,11 +1270,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1363,11 +1294,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1389,11 +1318,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1415,11 +1342,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1441,11 +1366,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1467,11 +1390,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1493,11 +1414,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1519,11 +1438,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1545,11 +1462,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1571,11 +1486,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1597,11 +1510,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1623,11 +1534,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1649,11 +1558,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1675,11 +1582,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1699,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" t="s">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1725,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" t="s">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1751,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>57</v>
-      </c>
-      <c r="G44" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1777,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
         <v>58</v>
-      </c>
-      <c r="H45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1803,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" t="s">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1829,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" t="s">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1855,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" t="s">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1881,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" t="s">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1907,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" t="s">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1933,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" t="s">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1959,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
-      </c>
-      <c r="G52" t="s">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1985,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" t="s">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2013,11 +1894,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2037,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" t="s">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2065,11 +1942,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2091,11 +1966,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2117,11 +1990,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2143,11 +2014,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2167,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>57</v>
-      </c>
-      <c r="G60" t="s">
-        <v>77</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2195,11 +2062,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2221,11 +2086,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2245,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" t="s">
-        <v>77</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2273,11 +2134,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97636.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97636.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will come to order, and let me express my apologies for the lateness in starting. We did have a series of votes. Who could ever anticipate or predict?    So, again, I want to say how unfortunate it is for that almost hour-long delay. But thank you for your patience.    I would like to welcome all of you to our fourth oversight hearing this year on implementation of the Sean and David Goldman International Child Abduction and Prevention and Return Act.    The Goldman Act empowers the executive branch with powerful new tools and a myriad of ways to successfully resolve parental child abduction cases.    Like any law, however, it is only good as its implementation. Historically, some 750 to 1,000 American children are unlawfully removed from their homes each year by one of their parents and taken across international borders.    International parental child abduction rips children from their homes and takes them away to a foreign land, alienating them from the love and care of the parent and family left behind.    Child abduction is child abuse. Its negative impact on the child and left-behind families can last for years, even a lifetime.    Two of our witnesses today, like many in this hearing room and around the country know first hand the trauma, the tears, the excruciating pain and the longing and heartbreak of a parental child abduction.    David Goldman's son, Sean, was abducted to Brazil and unlawfully retained for approximately 5\\1/2\\ years. Mr. Goldman tenaciously pursued every legal means of return including expert legal counsel in his quest to bring Sean home. Today, father and son are thriving and we will hear from them in Panel Two.    Captain Paul Toland continues his heroic 12-year quest to bring his 13-year-old daughter, Erika, home from Japan. Captain Toland refuses to quit or to be deterred, despite years of frustration and setbacks. Such is this father's incredible love for his precious daughter.    Our first hope, of course, is to prevent or at least mitigate the number of child abductions and the State Department is to be commended for implementing a provision of the Goldman Act and for taking other efforts as well including the one that adds children that a judge has determined to be at risk of abduction to a no-fly list.    In 2014, we saw a decrease in the number of new abductions--150, as a matter of fact, fewer cases than the previous year--and I want to do a shout out to Rush Marburg on the prevention side who has done a magnificent job in this endeavor.    But I am, frankly, concerned that the State Department has chosen not to impose any sanctions on any of those nations found to have engaged in a ``pattern of noncompliance.''    The Goldman Act, however, requires the State Department action under individual cases that have been pending for more than a year if the foreign government has not been taking adequate steps to resolve the case.    The Goldman Act also requires action when collectively a country has a high number of cases--30 percent or more--that have been unresolved for over a year or if the government is failing in their duties under the Hague Convention or other bilateral agreements or if their law enforcement fails to enforce, return or access orders.    The Goldman Act not only shines a light on a country's record through annual designation of countries showing a pattern of noncompliance, it holds countries accountable and hopefully incentivizes systemic reform.    Actions, as we know, from the law escalate in severity and range from official protests through diplomatic channels to public condemnation to extradition to suspension of development, security or other foreign assistance.    The Goldman Act was designed to raise the stakes on the foreign countries in action or obstruction and move that country to end the nightmare of child abduction.    In July, we received the State Department's first annual report on abduction and access resolution rates around the world. The annual report had some major gaps and misleading information, some of which were corrected by the supplemental data posted by the State Department in August.    Tragically, in contravention of both the spirit and letter of the Goldman Act, the State Department failed to list Japan with more than 50 abduction cases among the 22 countries showing a pattern of noncompliance and therefore eligible for Goldman Act sanctions.    This glaring omission, which can still be corrected today, sent the unfortunate signal that pre-Hague Japan cases were not a top priority.    Cases like that of Sgt. Michael Elias, who has testified here--he is a New Jerseyan who has been denied any contact with his two children, Jade and Michael, after they were abducted to Japan in 2008.    In September, the State Department sent to Congress its first 90-day report on actions it took to bring the 22 countries most--to the resolution table.    Those actions including the marches, judicial rulings--meetings, I should say--and education efforts and meetings, all of which are necessary and of real value. Noticeably absent was the imposition of any number of meaningful sanctions, again, prescribed by the Goldman Act.    I respectfully submit that this was a missed opportunity to convey to a pattern of noncompliant nations that the United States is absolutely serious about resolving parental abduction.    The imposition of sanctions says we mean business and I would note parenthetically that sanctions, and I have done this in other laws that I have written including the Trafficking Victims Protection Act but also our Civil Rights Act, Title 9, which has made all the difference in the world in women's sports, always carried a penalty phase and that certainly got the attention of universities and colleges throughout the country that the Federal Government was not kidding and wanted changes in how these universities did business.    Notwithstanding Section 103 of the Goldman Act, the report makes no mention of MOUs or bilateral agreements to resolve cases including and especially cases that existed prior to Japan's ratification of the Hague.    I and many others have raised this concern for several years. I actually did a trip to Japan with Michael Elias' mother, the children's grandmother, and said if we don't get that right they will be twice left behind because they were less likely to find themselves a resolution to their cases because, of course, the Hague Convention is from the date of ratification onward. It does not have a look back provision.    The report details the State Department's effort to persuade India to ratify the Hague Convention, a step that if not combined with an MOU to resolve current abduction cases which number about 75 today risks duplicating the extraordinary misery endured by left-behind parents after Japan ratified the Hague.    If India ratified the Hague it will, like Japan, grandfather preexisting cases out of the convention resolution process.    I would note the Bindu Phillips, who has been here, and she too has testified--mother of Albert and Alfred--has struggled with her ex-husband in Indian courts for the return of her sons for nearly 9 years--9 years--and every time she thinks she may be on the verge of a win in court, obviously, there is always, like in David Goldman's case another appeal to bleed her dry financially and to make it difficult to ever get her sons back. Ravi Parmar has been fighting for his son's return for 3 years.    Section 201 of the Goldman Act also requires the State Department to conduct a review of individual cases pending 12 months or more to discern whether the foreign government has taken adequate steps to resolve the case or whether actions are warranted.    This individual case trigger for actions, as opposed to the pattern of noncompliance country trigger, despite a half dozen congressional letters from various Members of Congress asking for Section 201 reviews of egregious cases the State, to my knowledge, has not done a single review and perhaps, Ambassador Bond, you can enlighten us on that.    I am encouraged by a press statement issued today by Secretary of State John Kerry in which he says clearly that he is looking to use all of the tools that have been prescribed by the Goldman Act as the beginnings of the next report take place and he said, you know, in his press release--and I do have it--he says in his press release, and I think it is a very important point that there can be no safe haven for abductors.    The State Department, Secretary Kerry says, will continue to use all the tools available to us to help those involved in international parental child abduction cases to resolve their disputes and move forward with their lives. So that is a very encouraging note.    Now I would like to introduce Secretary Bond, first, with a very brief introduction and without objection your full resume will be made a part of the record.    Ambassador Michele Bond serves as Assistant Secretary for Consular Affairs at the State Department. As Assistant Secretary, Ambassador Bond leads a team of 13,000 consular professionals in almost 300 locations across the U.S. and around the world who protect the lives and interests of U.S. citizens abroad, facilitate legitimate international travel and helps protect our nation's borders.    A career member of the senior Foreign Service, Ambassador Bond has more than 38 years of diplomatic experience in Europe, Africa and Latin America including having served as U.S. Ambassador to Lesotho.    Ambassador Bond, the floor is yours.    Ambassador Bond. Thank you.    Chairman Smith, thank you for this opportunity to discuss international parental child abduction. This is one of the highest priorities to the Bureau of Consular Affairs and the Department of State.    As Secretary Kerry noted in his statement on child abduction yesterday and as you have pointed out, the department will continue to use all the tools available to us to help those involved and to resolve their disputes and move forward with their lives.    Mr. Chairman, thank you for your leadership on this issue. You have heard the testimony of my colleagues, Ambassador Jacobs, Deputy Assistant Secretary Christensen and Director Hand in previous hearings.    You know that I lead a talented team of experienced professionals who work tirelessly to prevent abductions and bring children back home.    My testimony today will summarize my written statement which I request be entered into the congressional record.    The Sean and David Goldman International Child Abduction Prevention and Return Act of 2014 has given us additional leverage to resolve these cases. We have already put these additional tools to good use.    We are proud of our contribution to the 247 returns in 2015 and about 140 prevented abductions in 2015, and we recognize and accept the challenge of the 1,100 cases that remain open, some for many years.    Mr. Chairman, many actions take place every day to prevent or resolve these heart-wrenching cases. Since implementation of the law, more than 140 children have been protected from removal from the United States.    The law also provides the mechanism to streamline interagency efforts and we are fortunate to receive crucial assistance from our interagency partners.    We share your goals of preventing abduction, ensuring the expeditious return of children to their homes and strengthening and expanding the Hague Abduction Convention.    Let me briefly explain the role of the Office of Children's Issues within the greater context of how the Bureau of Consular Affairs advances U.S. foreign policy.    The Office of Children's Issues provides policy guidance and coordination within the Department of State and the Washington interagency community to prevent child abduction. It safeguards the welfare of abducted children, returns abducted children to their places of habitual residence and helps parents resolve these complex cases.    The Office of Children's Issues executes U.S. obligations under the convention as the U.S. central authority.    It leads U.S. Government efforts both within the department and with other U.S. Government agencies to assist children and families involved in abduction cases in all countries and reviews applications to partner with countries that have acceded to the Hague abduction convention.    My bureau leads the effort to engage governments on convention implementation, acceding to the convention and providing assistance to families involved in cases in nonconvention countries.    Our number-one priority is the safety and protection of U.S. citizens overseas. This provides a little solace to those parents who are still waiting to see their children returned home. Only the safe return of their children matters.    As a parent and as an assistant secretary of state for consular affairs, I pledge that my team and I will continue to work to resolve all abduction cases.    That includes working with convention countries such as Japan to resolve abductions that occurred before our partnership under the convention took effect.    We are actively engaged with Japan in these cases. Disappointingly few have been resolved with the return of an abducted child to the United States or through meaningful parental access.    My colleagues in the bureau, throughout the department and at our Embassies and consulates abroad, press our foreign government counterparts on the issue of abduction and raise your constituents' cases at every opportunity.    For example, we have requested the Government of India's assistance in resolving reported abduction cases. Special advisor for children's issues, Ambassador Susan Jacobs, Principal Deputy Assistant Secretary for South and Central Asian Affairs Ambassador William Todd and I all personally urged India to resolve reported cases in recent meetings in New Delhi and Washington.    Additionally, officials at the U.S. Embassy in New Delhi are in regular contact with Indian foreign ministry officials on these issues.    Mr. Chairman, let me again emphasize my personal commitment and my bureau's dedication to prevent parental abductions.    The department at State and our Interagency partners are committed to the implementation of the law and to safeguarding and returning abducted children to their places of habitual residence.    We are committed to ensuring parents have effective tools to resolve these cases in both convention and nonconvention countries.    As always, I appreciate your interest, your feedback and your suggestions. I look forward to your questions.</t>
   </si>
   <si>
@@ -91,6 +100,12 @@
     <t>412552</t>
   </si>
   <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman.    Ambassador Bond, thank you for being here. Obviously, we--this is not the first hearing that we have had on this matter. Your colleague there behind you, she has been here before, and I believe that you have a real commitment to return these children to their parents.    The frustration becomes is--and the reason for the Goldman Act originally was the type of soft diplomacy that you have described over the--really, in much of your testimony most of it has been soft diplomacy.    And what you are referring to was really the whole reason why the Goldman Act was passed by Congress was to give you additional tools beyond that soft diplomacy and the frustration that has been evident in this hearing as well as other hearings is the fact that some of the tools that have been afforded the State Department are not being used. And so there is a law that has been passed.    Now, I want to make sure I am clear with you and with some of your other colleagues. I know your commitment is, as you put it, a number-one priority.    The frustration on parents is each day, each birthday, each time that goes by they don't see that commitment and it is--where it is a priority for you it is the life for many of these parents and there is the disconnect.    So I guess my question, and I am going to be very direct, has the State Department delayed or cancelled one or more bilateral working relationships or official or State visits with any country based on a lack of cooperation?    Have you done that? Can you point to any specific example where that has been done based on their inability to help us out? Has that ever been done?    Ambassador Bond. Mr. Meadows, I have to admit that after 38 years at the State Department I don't share your sense that soft diplomacy doesn't--just doesn't get the job done.</t>
   </si>
   <si>
@@ -127,6 +142,12 @@
     <t>412604</t>
   </si>
   <si>
+    <t>Clawson</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming, Ambassador, and I think your job is a wonderful way to spend a life helping people and families like this. So congratulations and thank you for that.    Since I have been here in Washington, DC, we have talked about trade a lot. We just did the TPA agreement. We are now on the verge of the TPP agreement and so let me give you just a little bit of context, Ambassador, why I bring that up.    The U.S. is, roughly, a third of the GDP in the world, a little less than that. We are everyone's engine for economic growth and prosperity. No one does anything to lift up the poor in their country without trading with us, basically, for all intents and purposes.    Our trade deficit every month is $40 billion. That is the deficit every month--$40 billion, roughly. If the price of oil goes up, that goes up a little bit.    And so we are the economic engine for everyone, which creates leverage like I don't know--you know, every negotiated relationship in the world is based on leverage, as far as I can tell, and if that $40 billion a month doesn't create leverage with people I don't know what does.    We see Japanese-made cars. We see Korean-made cars. We all go to Wal-Mart. That's 90 percent Chinese-made goods, roughly.    We know what the Indians sell here, the Brazilians. I mean, I go down--when I went down the list today as I was reviewing the data for this committee, I looked at all these people that we have enormous economic leverage. They cannot live without us.    Now, if the administration is not serious enough to take their bacon away then what are we all sitting around here talking about?    We could solve corporate espionage tomorrow. We could solve kidnapped children tomorrow, in a month--one Executive order. Give our kids back or you don't get to sell your cars over here. Give our kids back or you don't get to sell your software over here. And if we don't do that how can we say we are serious? Because then we just send the money--and by the way, it costs--all those imported vehicles just cost good-paying jobs for hard-working Americans.    They just go away anyway. So we let our jobs go away at $40 billion a month and to add insult to injury they don't have to bring our kids back.    Now, I am not getting this. I am new to it. I hear what you all are saying about, you know, cancelled trips and cancelled that.    But as long as they are sending billions of dollars in here, making a living on our economy, and we are never doing--we are never using that leverage I don't see this changing. I really don't.    And so, you know, anything I can do to help but as a former business executive, you know, we had plants all over the world. These are nice people in these countries.    But until we hit them in the pocketbook nothing is going to happen, in my view. And so if you will take that back. Now, if my world is too simplistic and you are seeing something different than I am seeing, let me know.    But the only thing I think these folks will understand is if we take a shot at where it hurts and that is in the trade agreements and it can't go forever.    I mean, we could do it tomorrow, in my view. This is all very, very solvable as soon as we take a shot at their imports that come into our country.    Am I--you know, sorry for the passion here but am I--am I too simplistic in my--in my view here, Ambassador?    Ambassador Bond. Mr. Clawson, when I was working on the same issue 10 years ago, the countries that I was most focused on were Switzerland and Germany and Japan--been out there. Switzerland and Germany aren't on the list anymore because we have a very good working relationship.    We are good Hague partners. If children are taken, they come home. Very often children don't get taken because the advice that the parent gets who is kind of looking into--maybe checking with a lawyer, here's what I am thinking of doing--they are told don't even bother, your children will be brought right back.    Now, when we were originally talking with Switzerland and Germany 10 years ago there were judges in those countries that were saying why would I return a kid to the United States--it is better to grow up here in Germany and this child has a German passport and a German mother.    So I am not interested in the Hague Conventions.    That isn't true anymore. So I can't agree with the idea that the only thing that anybody listens to is a threat of financial harm.    I completely agree that the tools that are written into the new law are valuable ones and that they are ones that have to be under consideration for use, and they are.    But I do not agree that the best way to approach an issue is to say well, all right, you know, you have had 6 months and we told you these sanctions were out there so now we are going to come out with guns blazing.</t>
   </si>
   <si>
@@ -181,6 +202,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Let me thank the chairman for his kindness and the ranking member of this committee in this important hearing.    And I thank Secretary Bond for your presence here today. I dashed from the floor so thank you for your patience.    But I want to just hold up a face of mothers that have encountered challenges and difficulties even as this law has been passed.    And I would like to be--I think all of us would like to be a help to the administration, to administrations plural and to these families.    So I, first, would like to get from you a sense of the importance of the law being enforced through judicial and law enforcement education.    It seems that there is a difficulty. One case comes to mind where the court said I don't have jurisdiction--I am going to give it to Monaco when the children are U.S.-born, the mother is U.S.-born and a court is advocating their responsibility.    What do you think we can do with the education about the enforcement of this law?    Ambassador Bond. Well, one very valuable important tool that we have in terms of our education efforts is our network of Hague judges, Federal and state judges who are experts on the Hague and are prepared and very actively go out and talk to their counterparts in other countries in order to address very directly the questions that they might have about how this process works and to reassure them about how the process works in the United States.    So that is one of the education measures that we have. We also have brought scores of foreign judges and prosecutors to the United States to be--to have the opportunity to meet their counterparts and to understand how the process works here and to exchange different cases they worked on and just talk, you know, robe to robe, if you will, about how the process works for them, how they understand it and how the American judges handle the same cases.    So I think that is very much at the heart of the work that we are doing working also with the Hague permanent bureau, which has experts stationed in different regions of the world who also work to support different governments to make sure that they understand what they are supposed to be doing and that they get it right.    In Brazil next week there is going to be a judicial training program that is being organized with our support by the Hague permanent bureau.</t>
   </si>
   <si>
@@ -233,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. I would like to now invite panel two, being first with Mr. David Goldman, a father of a child abducted to Brazil. Mr. Goldman is father of Sean Goldman, who is here in the audience. He was born in Red Bank--Sean was, abducted to Brazil in 2004.    Mr. Goldman spent the next 5\\1/2\\ arduous years, enormous amounts of time and financial resources and had a great number of people supporting him in the New Jersey community and really around the country to secure the return of his son.    In December 2009, Christmas Eve to be exact, he actually got his son back and flew back to the United States and what a great reunion that was, not just for David but for his entire family.    We thank him for the work that he has done not just for himself but the Bring Sean Home Foundation and the other work he has done. He has been a shining example of what can be when the levers of government, the private sector, the media, all work in concert to bring about justice and a--in this case, a much needed family reunification.    We will then hear from U.S. Navy Captain Paul Toland, who has been fighting for access to and return of his daughter Erika since 2003.    Captain Toland--she was abducted, I should say, as an infant from a Navy family housing in Japan. Captain Toland has been the sole surviving parent since 2007 when Erika's mother died. But still has been prevented from unification with his daughter who is living with her grandmother.    Captain Toland recently launched a new legal effort in Japan's courts calling on the courts to recognize the fundamental human rights of a biological parent to have access to his or her child.    He is the co-founder and national director of Back Home, a nonprofit organization dedicated to the immediate return of internationally abducted children who have been wrongfully detained, especially in Japan.    I would like begin with Mr. Goldman and then go to Captain Toland.</t>
+  </si>
+  <si>
+    <t>Goldman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Goldman. Thank you, Mr. Chairman and Mr. Meadows and Ms. Jackson. It is wonderful that you are here to support this. I know Mr. Meadows has been here on a few of these hearings and we appreciate that.    I would like to just start before I go into my actually testimony, and all these hearings that I attend and some participate in I do keep hearing about the quiet diplomacy, and I always wonder, like, the questions that you ask, instead of deflecting them what is the real reason that they won't use the tools in the toolbox?    What is it? Just come clean. We don't believe in it. It is against what we stand for. I always thought it would just be against--they are more concerned about their bilateral relations than the 100 children in this country, the 200 children in this country--they are more worried about trade, they are more worried about arms, they are more worried about drug smuggling, border control in certain countries.    But why can't they just basically come clean and say what is the reason they won't use the tools in the tool box that they need, that they wanted? I just listened and we talk about Brazil.    They have acceded to the Hague Convention in 2004 and they are always on noncompliance. They just said nine times consecutively noncompliant. When is it time to use the tools? Does it take 9 years? Some child who is kidnapped at 9 is now an 18-year-old. They're a grownup. They are not a child anymore. That goes in complete contra Hague Convention, what it stands for.    Nine times and they are noncompliant and that does show that quiet diplomacy in that case doesn't work. And as you said, a 27-percent return rate from Germany, to me doesn't seem very successful.    But I diverged because those are just points that I just hear every time. So I was--I will give you a brief history of my case. For 5\\1/2\\ years I was a left-behind parent. I did live in a world of despondency and desperation with a searing pain through my entire being.    Everywhere I turned I saw an image of my abducted child. Sleep was hard to come by. It was never restful. If I smiled I did feel guilt.    When I saw children, whether it was in the store, a park, on television or on my charter boat, where clients often take their families for day on the water, it was more than painful.    For the longest time it was too painful to be around my own nieces and nephews. I was wondering--I wanted to be and where was my son. Where was my child?    He had been abducted. He had been illegally held. He was being psychologically, emotionally and mentally abused. I needed to help him but I was helpless. I needed to save him. He needed me, his father.    It was our legal, our moral, our God-given right to be together as parent and child. I did everything humanly possible leaving no stone unturned when for many years the result remained the same. My son, Sean, was not home.    There were court orders in place--many court orders from the U.S. demanding the immediate return of my child. The courts, as you pointed out, Mr. Chairman, acknowledged that my son had been held in violation of U.S. and international law.    However, he remained in the possession of his abductors. Why were so many laws being ignored? Why were the abductors and in my case, the Government of Brazil, allowed to flagrantly violate international law without consequence?    Why were my child and over 50 other American children still in Brazil, another plus in Mexico and thousands of other American children also held illegally in other countries in clear violation of the Hague Convention on the civil aspects of international child abduction?    It would take 4\\1/2\\ years, numerous court hearings, extraordinary work from my attorneys in Brazil and the U.S. and a tremendous amount of political pressure applied publically and internationally in House and Senate and State resolutions for me to finally be able to visit my abducted son for a few short periods of time.    It took Congressman Smith traveling to Brazil with me. It took Senator Lautenberg holding up a trade bill that would have given Brazil nearly $3 billion of trade preferences for my son to come home.    So as I prepared today's hearing, I began to review my own testimony from previous hearings as well as testimony of others who had given powerful and moving accounts of their own experiences with this issue.    In past, what was obvious was that our Government lacked the tools they so desperately needed to bring abducted American children home.    That is not the issue any longer. It has been over a year now since President Obama signed the Goldman Act into law, and thank you, Mr. Chairman, for authoring that legislation. It is much needed and I hope we can use it.    I hope our Government uses it. I beg, I plead on behalf of all these other left-behind parents and families and grandmas and cousins and nieces and nephews and the community that they were ripped away from that we use the tools to get these children home. It provides our Government with a number of options to persuade countries to return abducted American children.    One of our first duties of government is to protect its citizens and the Goldman Act does just that. We no longer need one senator. Important. We no longer need one senator to hold the trade bill in which 131 countries would see tariffs on their imports to the U.S. rise sharply and billions of dollars of their trade disrupted.    The Goldman Act is designed to work country to country--on a country to country basis and may impose punitive measures against individual nations harboring abducted American children.    And I go to the press release--there can be no safe havens for abductors. That was released yesterday by Secretary Kerry. Point in case--let's take action.    We need not--our Government needs not be so concerned about upsetting a country that harbors child abductions of American citizen children. We must demand their return. We are not asking for any favors.    We are expecting the rule of law to be followed and if it isn't then let them see there are tangible consequences. And when we do, and hopefully we will use some of these powerful tools, stronger tools, they are not permanent. They send the children home and whatever penalty, whatever punitive measures they face may be lifted.    It doesn't mean it's forever. But let's make a statement and if they get angry at us--how can we be concerned a country being angry at us for demanding our American children home? These are our citizens. It is our duty to protect them. We can't be concerned if they are going to get angry at us for demanding the return as they would their own.    It's intended to work side by side with the Hague Convention on the civil aspects of international child abduction, ensuring countries honor their treaty obligations, and this way the Goldman Act almost acts like a bodyguard to the treaty, protecting it and ensuring that it is followed as it was intended.    It took several years and several markups before becoming law and we now have the ability to help bring home this country's abducted children with both Hague signatory countries as well as non-Hague countries.    I would just quickly like to address the criminal approach. We talked about Department of Justice. And in my case as well as most cases, the first instincts are to pursue criminal remedies--go to the police, hunt down the abductors and hope for a return of the child through law enforcement. I understand and sympathize with that approach and that was in fact my first instinct.    But I do think that approach adds another layer of complexities to the process. What the Hague treaty does in simple terms is put a signatory country--it puts all signatory countries in agreement on how the issue of international child abduction should be resolved without complicating it on the basis of cultural and domestic laws.    Essentially, there are two extremely important issues that arise from criminal proceedings and demand from extraditions of child abductors.    Domestic courts will often refuse the return of an abducted child, knowing that the taking parent will face criminal prosecution by coming back to the country where the child was abducted from and many countries it is in their constitution--they just simply will not extradite one of their own citizens.    And even if they do extradite one of their own citizens, so you got the abductor back but the child is still over there.    It just adds a whole other layer of complexities and that is why the basis of the Hague Convention is on the civil aspects and that is why the tools of the Goldman Act are civil actions.    And as we also talked about, with regard to the Hague Convention itself, there are two areas which are most often abused by foreign judges when deciding these cases.    One is in Article 11 about the judicial administrative authorities shall expeditiously in proceedings so act expeditiously to return the children and if they don't reach that decision within 6 weeks of the date of commencement of the proceedings the applicant or the central authority of the requested state on its own initiative or if asked by the central authority of the requested state shall have the right to request a statement for the reasons of the delay.    So, clearly, the spirit of the convention is to have these cases handled swiftly so that there is little disruption as possible in the life of a child.    We all know that is not what happens. Most of the time when Americans are abducted because of the endless legal delays resulting from motions filed by the abducting parents the convention's intent is thwarted and the spirit of the convention is lost.    And, as an example, they use Article 13(b) about you don't have to return a child if the court where the child was abducted says there is going to be grave risk or harm to return the child.    So what they do is they interpret these legal delays and proceedings as the grounds for denying the return of a child based on the assumption that the passage of time somehow eliminates the urgency of returning that child to their home country of habitual residence. Because of their own slow judicial process they say it is now going to disrupt the abduct child to return them, thus rewarding the kidnapper.    As Congressman Smith mentioned, that case in Brazil, which is going on right now, they actually denied Chris Brann's--Dr. Brann, who I take a side note, is a internist. He works at Baylor University in Texas.    He dedicated his life to helping others yet he can't help his own child. He can't nurture and help and be with his own child.    Someone whose calling in life is to help heal, he can't even participate in his own child's life and the pain he is experiencing as well as all the other parents is just tremendous and devastating there really are no true words to imagine the level of despair that these parents suffer every day.    But they--in this case the judge cited, in Chris' case, the denial of my son because of the passage of time and the well settled issue. They denied the return of his son, citing my case. I was floored when I realized that, when I read that.    This judge that decided his case must have never read the news, seen the television or looked at a legal precedence because my son is home and he's been home for nearly 6 years. So for her to cite that case is just showing that they are looking at any reason to not return children.    Another example in Brazil, and this is about the enforcement issue, so now we have one judge just denying the return in a blatant disregard for the law. Another case is Nadia Davenport.    It's been more than 7 years since Devon Davenport's baby daughter was abducted from North Carolina to Brazil and he has fought admirably to bring his daughter home and he has even testified before this same committee last year making an impassioned plea for help.    The Brazilian court has ordered his daughter, Nadia, home and all legitimate appeals have been exhausted. Yet, nearly 2 years have passed since that decision without enforcement of the return and Nadia remains in Brazil illegally and Devon Davenport is not closer to being with his child.    So we have a country noncompliant for nine times. When they do get a judicial order it doesn't get carried out if they do get a judicial order.    There is no country that's screams, that is a member of the Hague for this long, to try your quiet diplomacy, to use the tools and these parents, like so many others, suffer so much. It is beyond words to describe and I know because I was one of them. I did feel like a dead man walking--lifeless, struggling day to day to get through the most meaningless tasks.    I am now so fortunate to be on the other side, having been reunited with my son, and to my knowledge, to answer a couple of your questions, Sean--my son, Sean Goldman--is the only American child ever to be returned from Brazil to America under a court order under the provisions of the Hague Convention.    So you asked the question. That's the answer. My son is the only child ever to be returned from Brazil to America under provisions of a court order under the Hague Convention and they have been acceded to the treaty since 2004.    We are lucky. We can't recover the years we have lost but we can enjoy our time now. We can live as parent and child. I can watch him grow and evolve and become a young adult.    We can interact with each other, participating, educating, encouraging and disciplining as a parent should be able to do with their own child. And so many other left-behind parents were given hope and, painfully, celebrated my son's return without their own children at their side.    And please don't allow their hope to be a cruel and anguishing false hope that their children may one day come home. Accompanying me to this hearing today are my son and stepson, Sean, and his stepbrother, Jesse. They are brothers and good buddies, and Sean can grow up as a normal boy with family and friends like it was intended.    I was able to assume my role as his father and he as my son. It is our legal and God-given right to be father and son. And next to me is Captain Paul Toland. The empty chair behind him awaits for his abducted daughter, Erika.    It is this government's duty to protect its citizens, to protect the rights of Erika and allow her to come home to America and grow up on the care of her father, her only living parent.    The tools are in place. Please use them. Help Paul reunite with Erika. Please help these suffering mothers and fathers reunite with their abducted American children. Our country is about keeping families together and they desperately need your help.    Paul needs your help. We have the tools. Let's use them.</t>
@@ -596,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +631,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,1517 +653,1805 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
       <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
       <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
       <c r="H18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
       <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
       <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
       <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
       <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
       <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="G45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="G47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="G48" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="G51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="G52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>54</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="G53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>54</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="G55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="G60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97636.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97636.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
   </si>
   <si>
     <t>412552</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Meadows</t>
@@ -623,7 +632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,7 +640,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,1802 +665,1964 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="I14" t="s">
+      <c r="G15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
       <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
         <v>29</v>
       </c>
-      <c r="I15" t="s">
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
         <v>29</v>
       </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" t="s">
-        <v>62</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55" t="s">
-        <v>62</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" t="s">
-        <v>81</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>84</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
-      </c>
-      <c r="G63" t="s">
-        <v>81</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>84</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>86</v>
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
